--- a/MDA-MB-231-Cell-Count-Data/GH1909_100nM_working_mod_8_22.xlsx
+++ b/MDA-MB-231-Cell-Count-Data/GH1909_100nM_working_mod_8_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Documents\MATLAB\2020 Incucyte Data Cal-Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Desktop\Cell Count Data (Final MATLAB Format) v2\231\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +339,7 @@
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137:E150"/>
+      <selection activeCell="B1" sqref="B1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -353,22 +349,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1918</v>
+        <v>1574.1522668947819</v>
       </c>
       <c r="C1">
-        <v>1854</v>
+        <v>1492.663573085847</v>
       </c>
       <c r="D1">
-        <v>2132</v>
+        <v>1763.0141071223763</v>
       </c>
       <c r="E1">
-        <v>1888</v>
+        <v>1504.6731898238745</v>
       </c>
       <c r="F1">
-        <v>2084</v>
+        <v>1622.1153483992466</v>
       </c>
       <c r="G1">
-        <v>1903</v>
+        <v>1551.0315107734464</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -376,22 +372,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2082</v>
+        <v>1708.7513136991324</v>
       </c>
       <c r="C2">
-        <v>1935</v>
+        <v>1557.8770301624133</v>
       </c>
       <c r="D2">
-        <v>2136</v>
+        <v>1766.3218258974653</v>
       </c>
       <c r="E2">
-        <v>1936</v>
+        <v>1542.9275929549901</v>
       </c>
       <c r="F2">
-        <v>2084</v>
+        <v>1622.1153483992466</v>
       </c>
       <c r="G2">
-        <v>1900</v>
+        <v>1548.5863743928262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -399,22 +395,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2104</v>
+        <v>1726.8072833923989</v>
       </c>
       <c r="C3">
-        <v>1991</v>
+        <v>1602.9628770301626</v>
       </c>
       <c r="D3">
-        <v>2130</v>
+        <v>1761.360247734832</v>
       </c>
       <c r="E3">
-        <v>1953</v>
+        <v>1556.4760273972602</v>
       </c>
       <c r="F3">
-        <v>2127</v>
+        <v>1655.5850988700565</v>
       </c>
       <c r="G3">
-        <v>1978</v>
+        <v>1612.1599202889527</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -422,22 +418,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2179</v>
+        <v>1788.3617255285349</v>
       </c>
       <c r="C4">
-        <v>2039</v>
+        <v>1641.6078886310906</v>
       </c>
       <c r="D4">
-        <v>2266</v>
+        <v>1873.8226860878542</v>
       </c>
       <c r="E4">
-        <v>2041</v>
+        <v>1626.6090998043051</v>
       </c>
       <c r="F4">
-        <v>2205</v>
+        <v>1716.2976694915253</v>
       </c>
       <c r="G4">
-        <v>2047</v>
+        <v>1668.3980570432184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -445,22 +441,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2261</v>
+        <v>1855.6612489307101</v>
       </c>
       <c r="C5">
-        <v>2128</v>
+        <v>1713.2621809744783</v>
       </c>
       <c r="D5">
-        <v>2334</v>
+        <v>1930.0539052643651</v>
       </c>
       <c r="E5">
-        <v>2133</v>
+        <v>1699.9300391389431</v>
       </c>
       <c r="F5">
-        <v>2236</v>
+        <v>1740.4270244821091</v>
       </c>
       <c r="G5">
-        <v>2119</v>
+        <v>1727.0813301781045</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -468,22 +464,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2327</v>
+        <v>1909.8291580105097</v>
       </c>
       <c r="C6">
-        <v>2264</v>
+        <v>1822.7563805104412</v>
       </c>
       <c r="D6">
-        <v>2464</v>
+        <v>2037.554765454754</v>
       </c>
       <c r="E6">
-        <v>2223</v>
+        <v>1771.6570450097845</v>
       </c>
       <c r="F6">
-        <v>2363</v>
+        <v>1839.2795433145009</v>
       </c>
       <c r="G6">
-        <v>2226</v>
+        <v>1814.2911944202269</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,22 +487,22 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2378</v>
+        <v>1951.686178663082</v>
       </c>
       <c r="C7">
-        <v>2343</v>
+        <v>1886.3596287703019</v>
       </c>
       <c r="D7">
-        <v>2591</v>
+        <v>2142.574836563826</v>
       </c>
       <c r="E7">
-        <v>2314</v>
+        <v>1844.1810176125243</v>
       </c>
       <c r="F7">
-        <v>2430</v>
+        <v>1891.4300847457628</v>
       </c>
       <c r="G7">
-        <v>2329</v>
+        <v>1898.2408768215221</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -514,22 +510,22 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2514</v>
+        <v>2063.304900403275</v>
       </c>
       <c r="C8">
-        <v>2414</v>
+        <v>1943.5220417633413</v>
       </c>
       <c r="D8">
-        <v>2655</v>
+        <v>2195.4983369652482</v>
       </c>
       <c r="E8">
-        <v>2385</v>
+        <v>1900.7656555772992</v>
       </c>
       <c r="F8">
-        <v>2532</v>
+        <v>1970.8234463276835</v>
       </c>
       <c r="G8">
-        <v>2355</v>
+        <v>1919.4320587868976</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -537,22 +533,22 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>2596</v>
+        <v>2130.6044238054506</v>
       </c>
       <c r="C9">
-        <v>2560</v>
+        <v>2061.067285382831</v>
       </c>
       <c r="D9">
-        <v>2720</v>
+        <v>2249.2487670604428</v>
       </c>
       <c r="E9">
-        <v>2515</v>
+        <v>2004.3713307240703</v>
       </c>
       <c r="F9">
-        <v>2624</v>
+        <v>2042.4331450094162</v>
       </c>
       <c r="G9">
-        <v>2498</v>
+        <v>2035.983559596463</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,22 +556,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2740</v>
+        <v>2248.7889527068314</v>
       </c>
       <c r="C10">
-        <v>2719</v>
+        <v>2189.0788863109051</v>
       </c>
       <c r="D10">
-        <v>2875</v>
+        <v>2377.4228695951369</v>
       </c>
       <c r="E10">
-        <v>2672</v>
+        <v>2129.4951076320935</v>
       </c>
       <c r="F10">
-        <v>2803</v>
+        <v>2181.760710922787</v>
       </c>
       <c r="G10">
-        <v>2610</v>
+        <v>2127.2686511396191</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -583,22 +579,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>2977</v>
+        <v>2443.3009898570208</v>
       </c>
       <c r="C11">
-        <v>2911</v>
+        <v>2343.6589327146175</v>
       </c>
       <c r="D11">
-        <v>3081</v>
+        <v>2547.7703865122148</v>
       </c>
       <c r="E11">
-        <v>2870</v>
+        <v>2287.294520547945</v>
       </c>
       <c r="F11">
-        <v>3081</v>
+        <v>2398.1465395480227</v>
       </c>
       <c r="G11">
-        <v>2868</v>
+        <v>2337.5503798729605</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -606,22 +602,22 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>3187</v>
+        <v>2615.6534278382014</v>
       </c>
       <c r="C12">
-        <v>3116</v>
+        <v>2508.7053364269145</v>
       </c>
       <c r="D12">
-        <v>3275</v>
+        <v>2708.1947471040257</v>
       </c>
       <c r="E12">
-        <v>3045</v>
+        <v>2426.7636986301368</v>
       </c>
       <c r="F12">
-        <v>3246</v>
+        <v>2526.5769774011301</v>
       </c>
       <c r="G12">
-        <v>3022</v>
+        <v>2463.0673807448002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,22 +625,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>3393</v>
+        <v>2784.7229622387877</v>
       </c>
       <c r="C13">
-        <v>3313</v>
+        <v>2667.31090487239</v>
       </c>
       <c r="D13">
-        <v>3537</v>
+        <v>2924.850326872348</v>
       </c>
       <c r="E13">
-        <v>3263</v>
+        <v>2600.502446183953</v>
       </c>
       <c r="F13">
-        <v>3448</v>
+        <v>2683.8069679849341</v>
       </c>
       <c r="G13">
-        <v>3222</v>
+        <v>2626.0764727861506</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -652,22 +648,22 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>3590</v>
+        <v>2946.4059635830381</v>
       </c>
       <c r="C14">
-        <v>3513</v>
+        <v>2828.331786542924</v>
       </c>
       <c r="D14">
-        <v>3742</v>
+        <v>3094.370914095653</v>
       </c>
       <c r="E14">
-        <v>3457</v>
+        <v>2755.1139921722111</v>
       </c>
       <c r="F14">
-        <v>3656</v>
+        <v>2845.7071563088512</v>
       </c>
       <c r="G14">
-        <v>3397</v>
+        <v>2768.7094283223319</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -675,22 +671,22 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>3802</v>
+        <v>3120.3998533545155</v>
       </c>
       <c r="C15">
-        <v>3682</v>
+        <v>2964.394431554525</v>
       </c>
       <c r="D15">
-        <v>3943</v>
+        <v>3260.5837825438698</v>
       </c>
       <c r="E15">
-        <v>3657</v>
+        <v>2914.507338551859</v>
       </c>
       <c r="F15">
-        <v>3849</v>
+        <v>2995.9318502824858</v>
       </c>
       <c r="G15">
-        <v>3593</v>
+        <v>2928.4583385228548</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -698,22 +694,22 @@
         <v>44.966666666666697</v>
       </c>
       <c r="B16">
-        <v>3795</v>
+        <v>3114.6547720884764</v>
       </c>
       <c r="C16">
-        <v>3789</v>
+        <v>3050.5406032482601</v>
       </c>
       <c r="D16">
-        <v>4098</v>
+        <v>3388.757885078564</v>
       </c>
       <c r="E16">
-        <v>3730</v>
+        <v>2972.6859099804301</v>
       </c>
       <c r="F16">
-        <v>3975</v>
+        <v>3094.0060028248586</v>
       </c>
       <c r="G16">
-        <v>3712</v>
+        <v>3025.4487482874583</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -721,22 +717,22 @@
         <v>47.966666666666697</v>
       </c>
       <c r="B17">
-        <v>3991</v>
+        <v>3275.517047537578</v>
       </c>
       <c r="C17">
-        <v>3934</v>
+        <v>3167.2807424593971</v>
       </c>
       <c r="D17">
-        <v>4193</v>
+        <v>3467.3162059869251</v>
       </c>
       <c r="E17">
-        <v>3875</v>
+        <v>3088.2460861056747</v>
       </c>
       <c r="F17">
-        <v>4051</v>
+        <v>3153.1618408662898</v>
       </c>
       <c r="G17">
-        <v>3841</v>
+        <v>3130.5896126541293</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -744,22 +740,22 @@
         <v>50.966666666666697</v>
       </c>
       <c r="B18">
-        <v>4000</v>
+        <v>3282.9035805939143</v>
       </c>
       <c r="C18">
-        <v>3967</v>
+        <v>3193.8491879350354</v>
       </c>
       <c r="D18">
-        <v>4220</v>
+        <v>3489.6433077187753</v>
       </c>
       <c r="E18">
-        <v>3956</v>
+        <v>3152.8003913894322</v>
       </c>
       <c r="F18">
-        <v>4176</v>
+        <v>3250.4576271186438</v>
       </c>
       <c r="G18">
-        <v>3900</v>
+        <v>3178.6772948063272</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -767,22 +763,22 @@
         <v>53.966666666666697</v>
       </c>
       <c r="B19">
-        <v>4065</v>
+        <v>3336.2507637785657</v>
       </c>
       <c r="C19">
-        <v>4101</v>
+        <v>3301.7331786542927</v>
       </c>
       <c r="D19">
-        <v>4283</v>
+        <v>3541.7398784264251</v>
       </c>
       <c r="E19">
-        <v>3965</v>
+        <v>3159.9730919765161</v>
       </c>
       <c r="F19">
-        <v>4224</v>
+        <v>3287.8192090395478</v>
       </c>
       <c r="G19">
-        <v>3927</v>
+        <v>3200.6835222319096</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -790,22 +786,22 @@
         <v>56.966666666666697</v>
       </c>
       <c r="B20">
-        <v>4048</v>
+        <v>3322.2984235610411</v>
       </c>
       <c r="C20">
-        <v>4098</v>
+        <v>3299.3178654292346</v>
       </c>
       <c r="D20">
-        <v>4323</v>
+        <v>3574.8170661773138</v>
       </c>
       <c r="E20">
-        <v>4000</v>
+        <v>3187.8669275929547</v>
       </c>
       <c r="F20">
-        <v>4234</v>
+        <v>3295.6028719397364</v>
       </c>
       <c r="G20">
-        <v>3989</v>
+        <v>3251.2163407647281</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -813,22 +809,22 @@
         <v>59.966666666666697</v>
       </c>
       <c r="B21">
-        <v>4062</v>
+        <v>3333.7885860931201</v>
       </c>
       <c r="C21">
-        <v>4114</v>
+        <v>3312.1995359628777</v>
       </c>
       <c r="D21">
-        <v>4336</v>
+        <v>3585.5671521963527</v>
       </c>
       <c r="E21">
-        <v>4038</v>
+        <v>3218.1516634050877</v>
       </c>
       <c r="F21">
-        <v>4255</v>
+        <v>3311.9485640301318</v>
       </c>
       <c r="G21">
-        <v>3996</v>
+        <v>3256.9216589861753</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -836,22 +832,22 @@
         <v>62.966666666666697</v>
       </c>
       <c r="B22">
-        <v>4102</v>
+        <v>3366.617621899059</v>
       </c>
       <c r="C22">
-        <v>4123</v>
+        <v>3319.4454756380514</v>
       </c>
       <c r="D22">
-        <v>4319</v>
+        <v>3571.5093474022251</v>
       </c>
       <c r="E22">
-        <v>4028</v>
+        <v>3210.1819960861053</v>
       </c>
       <c r="F22">
-        <v>4260</v>
+        <v>3315.8403954802261</v>
       </c>
       <c r="G22">
-        <v>4010</v>
+        <v>3268.3322954290697</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -859,22 +855,22 @@
         <v>65.966666666666697</v>
       </c>
       <c r="B23">
-        <v>4095</v>
+        <v>3360.87254063302</v>
       </c>
       <c r="C23">
-        <v>4104</v>
+        <v>3304.1484918793508</v>
       </c>
       <c r="D23">
-        <v>4346</v>
+        <v>3593.8364491340749</v>
       </c>
       <c r="E23">
-        <v>4068</v>
+        <v>3242.0606653620348</v>
       </c>
       <c r="F23">
-        <v>4252</v>
+        <v>3309.6134651600755</v>
       </c>
       <c r="G23">
-        <v>4013</v>
+        <v>3270.7774318096904</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
